--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T11:18:53+00:00</t>
+    <t>2021-09-06T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T11:30:59+00:00</t>
+    <t>2021-09-06T11:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T11:41:58+00:00</t>
+    <t>2021-09-06T13:59:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T13:59:59+00:00</t>
+    <t>2021-09-07T07:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:47:10+00:00</t>
+    <t>2021-09-07T07:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:59:49+00:00</t>
+    <t>2021-09-07T08:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T08:05:54+00:00</t>
+    <t>2021-09-07T08:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T08:11:26+00:00</t>
+    <t>2021-09-07T08:16:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T10:06:16+00:00</t>
+    <t>2021-09-07T10:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T10:23:40+00:00</t>
+    <t>2021-09-07T10:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T10:30:04+00:00</t>
+    <t>2021-10-11T13:22:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T13:22:02+00:00</t>
+    <t>2021-10-11T13:31:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T13:31:11+00:00</t>
+    <t>2021-10-11T13:45:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T13:45:30+00:00</t>
+    <t>2021-10-11T13:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T13:49:18+00:00</t>
+    <t>2021-10-11T13:54:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T13:54:44+00:00</t>
+    <t>2021-10-11T14:08:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T14:08:34+00:00</t>
+    <t>2021-10-11T14:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T14:15:18+00:00</t>
+    <t>2021-10-11T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T14:27:03+00:00</t>
+    <t>2021-10-11T14:34:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Logical Model for administration from HMW</t>
+    <t>[HMW] Logical Model for administration</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T14:34:14+00:00</t>
+    <t>2021-10-11T14:44:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T14:44:35+00:00</t>
+    <t>2021-10-11T15:41:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T15:41:43+00:00</t>
+    <t>2021-10-11T17:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T17:48:55+00:00</t>
+    <t>2021-10-11T18:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T18:54:01+00:00</t>
+    <t>2021-10-11T19:13:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T19:28:49+00:00</t>
+    <t>2021-10-12T08:23:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="123">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T08:23:54+00:00</t>
+    <t>2021-10-12T09:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>Where the administration was performed</t>
+  </si>
+  <si>
+    <t>MedicationAdministrationHMW.reaction</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2465,6 +2468,102 @@
         <v>72</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T09:38:37+00:00</t>
+    <t>2021-10-12T09:43:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T09:43:55+00:00</t>
+    <t>2021-10-12T13:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T13:17:39+00:00</t>
+    <t>2021-10-12T13:21:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T13:21:27+00:00</t>
+    <t>2021-11-09T17:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-09T17:14:07+00:00</t>
+    <t>2021-11-26T09:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T09:08:14+00:00</t>
+    <t>2021-11-26T09:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T09:17:10+00:00</t>
+    <t>2021-11-26T09:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T09:29:27+00:00</t>
+    <t>2021-12-13T10:16:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T10:16:17+00:00</t>
+    <t>2021-12-13T10:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T10:30:17+00:00</t>
+    <t>2021-12-17T08:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T08:35:15+00:00</t>
+    <t>2022-01-13T14:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T14:53:07+00:00</t>
+    <t>2022-01-13T16:04:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T16:04:24+00:00</t>
+    <t>2022-01-14T11:18:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T11:18:45+00:00</t>
+    <t>2022-02-10T12:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T12:53:49+00:00</t>
+    <t>2022-02-11T08:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T08:25:18+00:00</t>
+    <t>2022-03-11T08:54:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T08:54:44+00:00</t>
+    <t>2022-03-11T08:56:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T08:56:50+00:00</t>
+    <t>2022-03-11T09:06:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:51:07+00:00</t>
+    <t>2023-02-04T16:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:51:39+00:00</t>
+    <t>2023-02-04T16:53:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:53:50+00:00</t>
+    <t>2023-02-19T14:45:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationAdministrationHMW.xlsx
+++ b/StructureDefinition-MedicationAdministrationHMW.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-19T14:45:07+00:00</t>
+    <t>2023-02-20T20:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
